--- a/Lecture/Chem/2023_24/1semestr/Chem_results.xlsx
+++ b/Lecture/Chem/2023_24/1semestr/Chem_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\Chem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NMK\Lecture\Chem\2023_24\1semestr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE13A5D9-35F0-4061-ACCA-132A0939FCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CE5ABD-EE81-43FB-93B1-35F36DD37898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
   </bookViews>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F84A9-B269-47AE-AE42-7FB32606CF96}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,6 +549,9 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
       <c r="C3">
         <v>0.5</v>
       </c>
@@ -560,7 +563,7 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F24" si="0">SUM(B3:E3)+2</f>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -767,21 +770,30 @@
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
         <v>0.5</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
       <c r="C16">
         <v>1.5</v>
       </c>
@@ -793,73 +805,100 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
       <c r="E17">
         <v>7</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
       <c r="C18">
         <v>1</v>
       </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
       <c r="E18">
         <v>5</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B19">
+        <v>6.5</v>
+      </c>
       <c r="C19">
         <v>1</v>
       </c>
+      <c r="D19">
+        <v>2.5</v>
+      </c>
       <c r="E19">
         <v>8</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
       <c r="C20">
         <v>2</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
       </c>
       <c r="E20">
         <v>8</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B21">
+        <v>6.5</v>
+      </c>
       <c r="C21">
         <v>2.5</v>
       </c>
@@ -871,43 +910,58 @@
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
       <c r="C22">
         <v>1</v>
       </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22">
         <v>8</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
       <c r="C23">
         <v>2.5</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="E23">
         <v>6</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
       <c r="C24">
         <v>2</v>
       </c>
@@ -919,29 +973,17 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
-      <c r="F25">
-        <f t="shared" ref="F3:F27" si="1">SUM(B25:E25)+7</f>
-        <v>7</v>
-      </c>
     </row>
     <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
     </row>
     <row r="27" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lecture/Chem/2023_24/1semestr/Chem_results.xlsx
+++ b/Lecture/Chem/2023_24/1semestr/Chem_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NMK\Lecture\Chem\2023_24\1semestr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\NMK\Lecture\Chem\2023_24\1semestr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CE5ABD-EE81-43FB-93B1-35F36DD37898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A98C5A-85FA-4735-8102-2A8BF19A6B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
+    <workbookView xWindow="9165" yWindow="510" windowWidth="17760" windowHeight="14190" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>модуль</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t xml:space="preserve">Федоренко Олександр </t>
+  </si>
+  <si>
+    <t>ЗМ2</t>
   </si>
 </sst>
 </file>
@@ -184,7 +187,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -202,7 +205,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Офіс">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -240,7 +243,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Офіс">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -346,7 +349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Офіс">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -496,18 +499,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F84A9-B269-47AE-AE42-7FB32606CF96}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +526,23 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -544,8 +562,11 @@
         <f>SUM(B2:E2)+2</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -565,8 +586,11 @@
         <f t="shared" ref="F3:F24" si="0">SUM(B3:E3)+2</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -583,8 +607,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -604,8 +631,11 @@
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -625,8 +655,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -646,8 +679,11 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -667,8 +703,11 @@
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -688,8 +727,11 @@
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -709,8 +751,11 @@
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -730,8 +775,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -751,22 +799,25 @@
         <f t="shared" si="0"/>
         <v>23.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -787,7 +838,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -808,7 +859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -829,7 +880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -850,7 +901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -871,7 +922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -892,7 +943,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -913,7 +964,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -934,7 +985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -955,7 +1006,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -976,13 +1027,13 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
     </row>
   </sheetData>

--- a/Lecture/Chem/2023_24/1semestr/Chem_results.xlsx
+++ b/Lecture/Chem/2023_24/1semestr/Chem_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\NMK\Lecture\Chem\2023_24\1semestr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A98C5A-85FA-4735-8102-2A8BF19A6B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E260EA1E-7626-4826-988D-F3A808710B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9165" yWindow="510" windowWidth="17760" windowHeight="14190" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
   </bookViews>
@@ -502,7 +502,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,6 +837,9 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -858,8 +861,11 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -879,8 +885,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -900,8 +909,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -921,8 +933,11 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -942,8 +957,11 @@
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -963,8 +981,11 @@
         <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -984,8 +1005,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1005,8 +1029,11 @@
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1026,14 +1053,17 @@
         <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
     </row>
   </sheetData>

--- a/Lecture/Chem/2023_24/1semestr/Chem_results.xlsx
+++ b/Lecture/Chem/2023_24/1semestr/Chem_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\NMK\Lecture\Chem\2023_24\1semestr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NMK\Lecture\Chem\2023_24\1semestr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E260EA1E-7626-4826-988D-F3A808710B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302156B7-17A1-4065-801A-D34D6F242BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="510" windowWidth="17760" windowHeight="14190" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>модуль</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>ЗМ2</t>
+  </si>
+  <si>
+    <t>всього</t>
   </si>
 </sst>
 </file>
@@ -187,7 +190,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -203,9 +206,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Офіс">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -243,7 +246,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Офіс">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -349,7 +352,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Офіс">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -499,18 +502,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F84A9-B269-47AE-AE42-7FB32606CF96}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -541,8 +544,11 @@
       <c r="L1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -565,8 +571,25 @@
       <c r="H2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <f>SUM(H2:K2)</f>
+        <v>17</v>
+      </c>
+      <c r="N2">
+        <f>SUM(L2,F2)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -589,8 +612,25 @@
       <c r="H3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L24" si="1">SUM(H3:K3)</f>
+        <v>10.5</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N24" si="2">SUM(L3,F3)</f>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -604,14 +644,30 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -634,8 +690,25 @@
       <c r="H5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -658,8 +731,25 @@
       <c r="H6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -682,8 +772,25 @@
       <c r="H7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -706,8 +813,25 @@
       <c r="H8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.5</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -730,8 +854,25 @@
       <c r="H9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -754,8 +895,25 @@
       <c r="H10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -766,20 +924,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -802,22 +977,31 @@
       <c r="H12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>1.5</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>18.5</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -834,14 +1018,30 @@
         <v>4</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -864,8 +1064,25 @@
       <c r="H16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -888,8 +1105,25 @@
       <c r="H17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -912,8 +1146,25 @@
       <c r="H18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -936,8 +1187,25 @@
       <c r="H19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1.5</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -960,8 +1228,25 @@
       <c r="H20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -984,8 +1269,25 @@
       <c r="H21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>1.5</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -1008,8 +1310,25 @@
       <c r="H22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>0.5</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1032,8 +1351,25 @@
       <c r="H23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>1.5</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>8</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1056,14 +1392,31 @@
       <c r="H24">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>1.5</v>
+      </c>
+      <c r="J24">
+        <v>1.5</v>
+      </c>
+      <c r="K24">
+        <v>8</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
     </row>
   </sheetData>

--- a/Lecture/Chem/2023_24/1semestr/Chem_results.xlsx
+++ b/Lecture/Chem/2023_24/1semestr/Chem_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NMK\Lecture\Chem\2023_24\1semestr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\NMK\Lecture\Chem\2023_24\1semestr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302156B7-17A1-4065-801A-D34D6F242BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4D90CD-F033-45B4-BD8B-E2D5A5AF1F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
+    <workbookView xWindow="9165" yWindow="510" windowWidth="17760" windowHeight="14190" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -206,9 +206,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Офіс">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -246,7 +246,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Офіс">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -352,7 +352,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Офіс">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -504,16 +504,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F84A9-B269-47AE-AE42-7FB32606CF96}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +548,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -589,7 +589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -630,7 +630,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -667,7 +667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -694,21 +694,21 @@
         <v>0.5</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>5</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="N5">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -749,7 +749,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -790,7 +790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -831,7 +831,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -872,7 +872,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -899,21 +899,21 @@
         <v>0.5</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>8</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -954,7 +954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -995,13 +995,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1150,21 +1150,21 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18">
         <v>3</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N18">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1410,13 +1410,13 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
     </row>
   </sheetData>

--- a/Lecture/Chem/2023_24/1semestr/Chem_results.xlsx
+++ b/Lecture/Chem/2023_24/1semestr/Chem_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\NMK\Lecture\Chem\2023_24\1semestr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4D90CD-F033-45B4-BD8B-E2D5A5AF1F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8A5924-8FBC-4E92-B1D8-2034938A9839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9165" yWindow="510" windowWidth="17760" windowHeight="14190" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,18 +735,18 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="N6">
         <f t="shared" si="2"/>
-        <v>26.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -817,18 +817,18 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K8">
         <v>5</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -858,18 +858,18 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9">
         <v>4</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -940,18 +940,18 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K11">
         <v>5</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1191,18 +1191,18 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K19">
         <v>5</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="N19">
         <f t="shared" si="2"/>
-        <v>31.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/Lecture/Chem/2023_24/1semestr/Chem_results.xlsx
+++ b/Lecture/Chem/2023_24/1semestr/Chem_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\NMK\Lecture\Chem\2023_24\1semestr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NMK\Lecture\Chem\2023_24\1semestr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8A5924-8FBC-4E92-B1D8-2034938A9839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803DDB07-BFD9-4175-AB01-E25C478432F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="510" windowWidth="17760" windowHeight="14190" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
+    <workbookView xWindow="6852" yWindow="84" windowWidth="16188" windowHeight="10944" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -206,9 +206,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Офіс">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -246,7 +246,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Офіс">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -352,7 +352,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Офіс">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -505,15 +505,15 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +548,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -589,7 +589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -630,7 +630,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -638,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -664,10 +664,10 @@
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -708,7 +708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -719,14 +719,14 @@
         <v>1.5</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>8</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -746,10 +746,10 @@
       </c>
       <c r="N6">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -790,7 +790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -831,7 +831,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -872,7 +872,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -913,7 +913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -924,14 +924,14 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -951,10 +951,10 @@
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -995,13 +995,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1410,13 +1410,13 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
     </row>
   </sheetData>
